--- a/docs/soupisSoucastek_Zlabaci.xlsx
+++ b/docs/soupisSoucastek_Zlabaci.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059fe396987886cd/vitek/Plocha/HackathonNigg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059fe396987886cd/vitek/Plocha/Hackathon25/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="8_{2F207B80-1565-4470-A70C-9E1A763E3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{809A01EE-E85C-48F8-BDFA-E2F900C8C672}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{2F207B80-1565-4470-A70C-9E1A763E3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFE3C9A7-C373-4F3D-8587-6C886CB43137}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{F435EBC2-11C0-4CD1-8A4D-B2D70B84DF73}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Počet</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Žlabáci - SPŠEaG V Úžlabině</t>
   </si>
   <si>
-    <t>Cena</t>
-  </si>
-  <si>
     <t>ROBO-1.0</t>
   </si>
   <si>
@@ -123,14 +120,72 @@
   </si>
   <si>
     <t>Soupis použitých součástek a dílů</t>
+  </si>
+  <si>
+    <t>celkem:</t>
+  </si>
+  <si>
+    <t>Dodavatel</t>
+  </si>
+  <si>
+    <t>AliExpress</t>
+  </si>
+  <si>
+    <t>vlastní 3D tisk</t>
+  </si>
+  <si>
+    <t>Cena za kus</t>
+  </si>
+  <si>
+    <t>Celková cena</t>
+  </si>
+  <si>
+    <t>ROBO-1.2</t>
+  </si>
+  <si>
+    <t>Microbit</t>
+  </si>
+  <si>
+    <t>OMG Robotics</t>
+  </si>
+  <si>
+    <t>ROBO-1.3</t>
+  </si>
+  <si>
+    <t>Microbit shield MB3</t>
+  </si>
+  <si>
+    <t>ROBO-1.4</t>
+  </si>
+  <si>
+    <t>Zdroj 5V</t>
+  </si>
+  <si>
+    <t>Alza.cz</t>
+  </si>
+  <si>
+    <t>ROBO-1.5</t>
+  </si>
+  <si>
+    <t>Proudový senzor</t>
+  </si>
+  <si>
+    <t>gme.cz</t>
+  </si>
+  <si>
+    <t>ROBO-1.6</t>
+  </si>
+  <si>
+    <t>Dřevěná podstavná deska</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0\ [$Kč-405]"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0\ [$Kč-405]"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;Kč&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,53 +259,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -585,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78474A7F-8BD4-4D57-B0CF-B38EBC69B659}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -597,68 +645,69 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="23.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="13" style="12" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>21</v>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -674,8 +723,15 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <v>85</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5*D5</f>
+        <v>425</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,13 +742,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="5">
         <v>31</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" ref="F6:F20" si="0">E6*D6</f>
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -708,8 +771,15 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="5">
         <v>28.31</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>28.31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -725,8 +795,15 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>11.5</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,8 +819,15 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>3.76</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="0"/>
+        <v>11.28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,8 +843,15 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="5">
         <v>5.97</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="0"/>
+        <v>11.94</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -776,8 +867,15 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>1.55</v>
+      </c>
+      <c r="F11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -793,65 +891,222 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="5">
         <v>4.87</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" si="0"/>
+        <v>9.74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="5">
         <v>17</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="5">
         <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="5">
         <v>10</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>550</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>299</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>250</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>50</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>70</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8">
+        <f>SUM(F5:F20)</f>
+        <v>1843.32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E3"/>
+    <mergeCell ref="A2:G3"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
